--- a/XLsheets/DataBase.xlsx
+++ b/XLsheets/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shredeshpande\IdeaProjects\RestAssuredMiniAssignment\XLsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA3611C-6307-4F4E-938C-3102C54CE7BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE26453-8C5C-49B5-A074-FB13994EFC50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{31433314-E7D5-4A10-B2A6-CBD23D87899A}"/>
   </bookViews>
@@ -48,22 +48,22 @@
     <t>age</t>
   </si>
   <si>
-    <t>arpit</t>
-  </si>
-  <si>
-    <t>arp@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rahul </t>
-  </si>
-  <si>
-    <t>rah@gmail.com</t>
-  </si>
-  <si>
-    <t>ankit</t>
-  </si>
-  <si>
-    <t>an@gmail.com</t>
+    <t>rahul 1</t>
+  </si>
+  <si>
+    <t>rah1@gmail.com</t>
+  </si>
+  <si>
+    <t>ankit1</t>
+  </si>
+  <si>
+    <t>an1@gmail.com</t>
+  </si>
+  <si>
+    <t>kalu1</t>
+  </si>
+  <si>
+    <t>ar11p@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,10 +450,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1234567</v>
@@ -464,10 +464,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>22334455</v>
@@ -478,10 +478,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>55667788</v>

--- a/XLsheets/DataBase.xlsx
+++ b/XLsheets/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shredeshpande\IdeaProjects\RestAssuredMiniAssignment\XLsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE26453-8C5C-49B5-A074-FB13994EFC50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A37162-8FA1-4FA1-A8D2-6D2A90D1B759}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{31433314-E7D5-4A10-B2A6-CBD23D87899A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -48,22 +48,10 @@
     <t>age</t>
   </si>
   <si>
-    <t>rahul 1</t>
-  </si>
-  <si>
-    <t>rah1@gmail.com</t>
-  </si>
-  <si>
-    <t>ankit1</t>
-  </si>
-  <si>
-    <t>an1@gmail.com</t>
-  </si>
-  <si>
-    <t>kalu1</t>
-  </si>
-  <si>
-    <t>ar11p@gmail.com</t>
+    <t>2kalu11ey21434</t>
+  </si>
+  <si>
+    <t>ar1112t432e14p@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -433,6 +421,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -450,53 +441,29 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>1234567</v>
+        <v>123456723</v>
       </c>
       <c r="D2">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>22334455</v>
-      </c>
-      <c r="D3">
-        <v>23</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>55667788</v>
-      </c>
-      <c r="D4">
-        <v>21</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{3228F635-07A5-43B7-95B5-2AB2C98D0B6B}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{67E13E8C-17A3-41F5-AA1E-BF450FA7719B}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{D2B0774A-AE39-424B-A77C-A8F51F3202BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/XLsheets/DataBase.xlsx
+++ b/XLsheets/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shredeshpande\IdeaProjects\RestAssuredMiniAssignment\XLsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A37162-8FA1-4FA1-A8D2-6D2A90D1B759}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330800DC-8099-48FC-B714-9005645A66D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{31433314-E7D5-4A10-B2A6-CBD23D87899A}"/>
   </bookViews>
@@ -48,10 +48,10 @@
     <t>age</t>
   </si>
   <si>
-    <t>2kalu11ey21434</t>
-  </si>
-  <si>
-    <t>ar1112t432e14p@gmail.com</t>
+    <t>2k2alsfu21rer1faey2a1r434</t>
+  </si>
+  <si>
+    <t>ardfs343r2esar14p@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/XLsheets/DataBase.xlsx
+++ b/XLsheets/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shredeshpande\IdeaProjects\RestAssuredMiniAssignment\XLsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330800DC-8099-48FC-B714-9005645A66D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54135E7F-785E-4AF3-9F21-BB7C713FE46E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{31433314-E7D5-4A10-B2A6-CBD23D87899A}"/>
   </bookViews>
@@ -48,10 +48,10 @@
     <t>age</t>
   </si>
   <si>
-    <t>2k2alsfu21rer1faey2a1r434</t>
-  </si>
-  <si>
-    <t>ardfs343r2esar14p@gmail.com</t>
+    <t>arAdfs34ada3sr2ecaaxsasejssaSar1d4p@gmail.com</t>
+  </si>
+  <si>
+    <t>2k2alasfdusaadcxzaaeaaaSA21rder1faey2a1r434</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,10 +441,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>123456723</v>
